--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value924.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value924.xlsx
@@ -357,7 +357,7 @@
         <v>2.364382702450336</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.109161648899424</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value924.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value924.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.353227212437035</v>
+        <v>0.9215428233146667</v>
       </c>
       <c r="B1">
-        <v>1.672506792360067</v>
+        <v>1.400839924812317</v>
       </c>
       <c r="C1">
-        <v>2.364382702450336</v>
+        <v>2.622637271881104</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.512464642524719</v>
       </c>
       <c r="E1">
-        <v>1.109161648899424</v>
+        <v>1.430940508842468</v>
       </c>
     </row>
   </sheetData>
